--- a/Data/Inputs/FilesTemplates/Template_Report.xlsx
+++ b/Data/Inputs/FilesTemplates/Template_Report.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LuisRamos\OneDrive - Roboyo Global\Documents\UiPath\Personal\BotMonitor\Data\Inputs\FilesTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32321CE0-7597-403F-8E3F-CBFADAA83F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F701417-A526-46DC-8369-12B00CE1C413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Folders" sheetId="2" r:id="rId1"/>
+    <sheet name="Summary" sheetId="2" r:id="rId1"/>
     <sheet name="Jobs" sheetId="5" r:id="rId2"/>
     <sheet name="Queues" sheetId="7" r:id="rId3"/>
     <sheet name="Transactions" sheetId="6" r:id="rId4"/>
@@ -23,13 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
-  <si>
-    <t>FolderId</t>
-  </si>
-  <si>
-    <t>FolderName</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>Folder</t>
   </si>
@@ -86,6 +80,24 @@
   </si>
   <si>
     <t>Exception Type</t>
+  </si>
+  <si>
+    <t>ProcessName</t>
+  </si>
+  <si>
+    <t>Total jobs</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Stopped</t>
+  </si>
+  <si>
+    <t>Killed</t>
   </si>
 </sst>
 </file>
@@ -148,11 +160,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF9107EF-EA67-44EE-9EDB-7B3517B21E6D}" name="Folders" displayName="Folders" ref="A1:B2" insertRow="1" totalsRowShown="0">
-  <autoFilter ref="A1:B2" xr:uid="{FF9107EF-EA67-44EE-9EDB-7B3517B21E6D}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{BBC179BF-6FE0-4762-B4D6-472663462EF3}" name="FolderId"/>
-    <tableColumn id="6" xr3:uid="{7DC830EF-85E2-4CDA-81E9-8C2E1360F4CE}" name="FolderName"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF9107EF-EA67-44EE-9EDB-7B3517B21E6D}" name="Folders" displayName="Folders" ref="A1:H2" totalsRowShown="0">
+  <autoFilter ref="A1:H2" xr:uid="{FF9107EF-EA67-44EE-9EDB-7B3517B21E6D}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{BBC179BF-6FE0-4762-B4D6-472663462EF3}" name="Folder"/>
+    <tableColumn id="5" xr3:uid="{171510A8-87B2-4B58-A007-0C2AB6F50E7C}" name="ProcessName"/>
+    <tableColumn id="4" xr3:uid="{79A415B4-32DD-4B68-8BB0-600F3CA3DB89}" name="Total jobs"/>
+    <tableColumn id="3" xr3:uid="{C2A1F942-AAC2-4846-A829-B961C9DBBDD5}" name="Success"/>
+    <tableColumn id="2" xr3:uid="{D41AA694-5B0D-4D0B-8B56-9847B01011E7}" name="Failed"/>
+    <tableColumn id="7" xr3:uid="{49E9044F-4861-4932-B38F-187CE4C495B0}" name="In Progress"/>
+    <tableColumn id="8" xr3:uid="{8D7E2F18-AC67-43C4-9881-82ADC4A630B3}" name="Killed"/>
+    <tableColumn id="6" xr3:uid="{7DC830EF-85E2-4CDA-81E9-8C2E1360F4CE}" name="Stopped"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -175,8 +193,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2D849C52-C558-4760-9865-8390B46AFAE6}" name="Queues" displayName="Queues" ref="A1:I2" insertRow="1" totalsRowShown="0">
-  <autoFilter ref="A1:I2" xr:uid="{ED764BB9-1BA1-4C59-B722-9852B881D48E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2D849C52-C558-4760-9865-8390B46AFAE6}" name="Queues" displayName="Queues" ref="A1:I2" totalsRowShown="0">
+  <autoFilter ref="A1:I2" xr:uid="{2D849C52-C558-4760-9865-8390B46AFAE6}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{2095FA03-4DB3-4016-8A1E-38B9D73DC311}" name="Folder"/>
     <tableColumn id="4" xr3:uid="{B90D4BCE-D5ED-47DA-A43B-49EFB5A0FD10}" name="Queue Name"/>
@@ -193,7 +211,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ED764BB9-1BA1-4C59-B722-9852B881D48E}" name="Transactions" displayName="Transactions" ref="A1:I2" insertRow="1" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ED764BB9-1BA1-4C59-B722-9852B881D48E}" name="Transactions" displayName="Transactions" ref="A1:I2" totalsRowShown="0">
   <autoFilter ref="A1:I2" xr:uid="{ED764BB9-1BA1-4C59-B722-9852B881D48E}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{5BB3D125-6C64-4A6C-AB67-EED468A10270}" name="Folder"/>
@@ -495,22 +513,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -525,40 +569,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.5546875" customWidth="1"/>
-    <col min="2" max="2" width="33.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.109375" customWidth="1"/>
-    <col min="6" max="6" width="39.6640625" customWidth="1"/>
-    <col min="7" max="7" width="25.109375" customWidth="1"/>
+    <col min="1" max="1" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="108" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -578,45 +623,48 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" customWidth="1"/>
-    <col min="5" max="9" width="13.21875" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -631,48 +679,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CADEFBE-750A-44B4-BBF7-BF12CD92A6E4}">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" customWidth="1"/>
-    <col min="2" max="2" width="30.21875" customWidth="1"/>
-    <col min="3" max="3" width="24.44140625" customWidth="1"/>
-    <col min="4" max="4" width="67.21875" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="37" customWidth="1"/>
+    <col min="9" max="9" width="96.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Inputs/FilesTemplates/Template_Report.xlsx
+++ b/Data/Inputs/FilesTemplates/Template_Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LuisRamos\OneDrive - Roboyo Global\Documents\UiPath\Personal\BotMonitor\Data\Inputs\FilesTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F701417-A526-46DC-8369-12B00CE1C413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D6ABC2-1173-4033-947C-7F48DDA74B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="17496" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -139,7 +139,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
@@ -183,8 +203,8 @@
     <tableColumn id="1" xr3:uid="{C9D7FE29-0221-40AD-8F4B-E736A7198BBA}" name="Folder"/>
     <tableColumn id="5" xr3:uid="{D7A623AE-2ADB-48D3-8375-2BCF8D2F542E}" name="Process Name"/>
     <tableColumn id="4" xr3:uid="{89DC987D-80E6-410F-88E1-763F4D949606}" name="Status"/>
-    <tableColumn id="3" xr3:uid="{5AB3991A-5936-4AFF-8C04-986AA047C15D}" name="Started" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{17ADD2AC-EE76-41A6-833C-E16200D6758D}" name="Ended" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{5AB3991A-5936-4AFF-8C04-986AA047C15D}" name="Started" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{17ADD2AC-EE76-41A6-833C-E16200D6758D}" name="Ended" dataDxfId="2"/>
     <tableColumn id="6" xr3:uid="{C6DB0571-083C-4B2A-A19D-EC0B0600C75B}" name="Source"/>
     <tableColumn id="7" xr3:uid="{B22DD4C7-E799-43FE-AAC1-1C31EAA96426}" name="Notes"/>
   </tableColumns>
@@ -193,7 +213,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2D849C52-C558-4760-9865-8390B46AFAE6}" name="Queues" displayName="Queues" ref="A1:I2" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2D849C52-C558-4760-9865-8390B46AFAE6}" name="Queues" displayName="Queues" ref="A1:I2" insertRow="1" totalsRowShown="0">
   <autoFilter ref="A1:I2" xr:uid="{2D849C52-C558-4760-9865-8390B46AFAE6}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{2095FA03-4DB3-4016-8A1E-38B9D73DC311}" name="Folder"/>
@@ -515,7 +535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
@@ -576,7 +596,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.6640625" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.33203125" bestFit="1" customWidth="1"/>
@@ -622,14 +642,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33498675-E6D3-47A1-90D2-E021AE14BE7C}">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" customWidth="1"/>
     <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
@@ -668,6 +688,16 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="G2:G1048576">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -686,7 +716,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.109375" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
